--- a/Config/Excel/CharacterGenerated.xlsx
+++ b/Config/Excel/CharacterGenerated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EB81F7-4BF3-47EE-9338-F93207804B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8033B177-841C-489E-83B2-F16A698B13B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,8 +117,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{188ED448-6F18-4626-9D31-2FDCAB89CAC3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{613AF5EE-FAF6-467B-B754-8686892A0D0F}" name="CharacterId"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F492B-B3F2-43F3-A1CC-F544B6281410}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -495,6 +495,14 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/CharacterGenerated.xlsx
+++ b/Config/Excel/CharacterGenerated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8033B177-841C-489E-83B2-F16A698B13B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752F3E30-9A5F-4D3D-81B9-F7C23EE89A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
   </bookViews>
@@ -117,8 +117,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{188ED448-6F18-4626-9D31-2FDCAB89CAC3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{613AF5EE-FAF6-467B-B754-8686892A0D0F}" name="CharacterId"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F492B-B3F2-43F3-A1CC-F544B6281410}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -500,7 +500,41 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>1002</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1003</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1004</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/CharacterGenerated.xlsx
+++ b/Config/Excel/CharacterGenerated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752F3E30-9A5F-4D3D-81B9-F7C23EE89A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B3860B-980B-46EC-A0A3-A2AF70B05989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
+    <workbookView xWindow="10245" yWindow="3540" windowWidth="17430" windowHeight="12525" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -456,13 +456,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -470,13 +464,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1001</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -484,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -492,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1001</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -500,13 +488,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1002</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -514,13 +496,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1003</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -528,13 +504,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1004</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/CharacterGenerated.xlsx
+++ b/Config/Excel/CharacterGenerated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B3860B-980B-46EC-A0A3-A2AF70B05989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DEEE28-E0B5-44E6-9EAB-DAC662894E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="3540" windowWidth="17430" windowHeight="12525" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
+    <workbookView xWindow="3432" yWindow="1644" windowWidth="17292" windowHeight="8964" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -117,8 +115,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D596" totalsRowShown="0">
+  <autoFilter ref="A1:D596" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{188ED448-6F18-4626-9D31-2FDCAB89CAC3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{613AF5EE-FAF6-467B-B754-8686892A0D0F}" name="CharacterId"/>
@@ -426,18 +424,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F492B-B3F2-43F3-A1CC-F544B6281410}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -459,52 +457,4756 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A502">
+        <v>501</v>
+      </c>
+      <c r="B502">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A503">
+        <v>502</v>
+      </c>
+      <c r="B503">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A504">
+        <v>503</v>
+      </c>
+      <c r="B504">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A505">
+        <v>504</v>
+      </c>
+      <c r="B505">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A506">
+        <v>505</v>
+      </c>
+      <c r="B506">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A507">
+        <v>506</v>
+      </c>
+      <c r="B507">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A508">
+        <v>507</v>
+      </c>
+      <c r="B508">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A509">
+        <v>508</v>
+      </c>
+      <c r="B509">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A510">
+        <v>509</v>
+      </c>
+      <c r="B510">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A511">
+        <v>510</v>
+      </c>
+      <c r="B511">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A512">
+        <v>511</v>
+      </c>
+      <c r="B512">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A513">
+        <v>512</v>
+      </c>
+      <c r="B513">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A514">
+        <v>513</v>
+      </c>
+      <c r="B514">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A515">
+        <v>514</v>
+      </c>
+      <c r="B515">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A516">
+        <v>515</v>
+      </c>
+      <c r="B516">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A517">
+        <v>516</v>
+      </c>
+      <c r="B517">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A518">
+        <v>517</v>
+      </c>
+      <c r="B518">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A519">
+        <v>518</v>
+      </c>
+      <c r="B519">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A520">
+        <v>519</v>
+      </c>
+      <c r="B520">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A521">
+        <v>520</v>
+      </c>
+      <c r="B521">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A522">
+        <v>521</v>
+      </c>
+      <c r="B522">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A523">
+        <v>522</v>
+      </c>
+      <c r="B523">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A524">
+        <v>523</v>
+      </c>
+      <c r="B524">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A525">
+        <v>524</v>
+      </c>
+      <c r="B525">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A526">
+        <v>525</v>
+      </c>
+      <c r="B526">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A527">
+        <v>526</v>
+      </c>
+      <c r="B527">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A528">
+        <v>527</v>
+      </c>
+      <c r="B528">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A529">
+        <v>528</v>
+      </c>
+      <c r="B529">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A530">
+        <v>529</v>
+      </c>
+      <c r="B530">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A531">
+        <v>530</v>
+      </c>
+      <c r="B531">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A532">
+        <v>531</v>
+      </c>
+      <c r="B532">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A533">
+        <v>532</v>
+      </c>
+      <c r="B533">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A534">
+        <v>533</v>
+      </c>
+      <c r="B534">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A535">
+        <v>534</v>
+      </c>
+      <c r="B535">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A536">
+        <v>535</v>
+      </c>
+      <c r="B536">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A537">
+        <v>536</v>
+      </c>
+      <c r="B537">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A538">
+        <v>537</v>
+      </c>
+      <c r="B538">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A539">
+        <v>538</v>
+      </c>
+      <c r="B539">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A540">
+        <v>539</v>
+      </c>
+      <c r="B540">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A541">
+        <v>540</v>
+      </c>
+      <c r="B541">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A542">
+        <v>541</v>
+      </c>
+      <c r="B542">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A543">
+        <v>542</v>
+      </c>
+      <c r="B543">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A544">
+        <v>543</v>
+      </c>
+      <c r="B544">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A545">
+        <v>544</v>
+      </c>
+      <c r="B545">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A546">
+        <v>545</v>
+      </c>
+      <c r="B546">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A547">
+        <v>546</v>
+      </c>
+      <c r="B547">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A548">
+        <v>547</v>
+      </c>
+      <c r="B548">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A549">
+        <v>548</v>
+      </c>
+      <c r="B549">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A550">
+        <v>549</v>
+      </c>
+      <c r="B550">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A551">
+        <v>550</v>
+      </c>
+      <c r="B551">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A552">
+        <v>551</v>
+      </c>
+      <c r="B552">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A553">
+        <v>552</v>
+      </c>
+      <c r="B553">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A554">
+        <v>553</v>
+      </c>
+      <c r="B554">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A555">
+        <v>554</v>
+      </c>
+      <c r="B555">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A556">
+        <v>555</v>
+      </c>
+      <c r="B556">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A557">
+        <v>556</v>
+      </c>
+      <c r="B557">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A558">
+        <v>557</v>
+      </c>
+      <c r="B558">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A559">
+        <v>558</v>
+      </c>
+      <c r="B559">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A560">
+        <v>559</v>
+      </c>
+      <c r="B560">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A561">
+        <v>560</v>
+      </c>
+      <c r="B561">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A562">
+        <v>561</v>
+      </c>
+      <c r="B562">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A563">
+        <v>562</v>
+      </c>
+      <c r="B563">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A564">
+        <v>563</v>
+      </c>
+      <c r="B564">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A565">
+        <v>564</v>
+      </c>
+      <c r="B565">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A566">
+        <v>565</v>
+      </c>
+      <c r="B566">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A567">
+        <v>566</v>
+      </c>
+      <c r="B567">
         <v>666</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A568">
+        <v>567</v>
+      </c>
+      <c r="B568">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A569">
+        <v>568</v>
+      </c>
+      <c r="B569">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A570">
+        <v>569</v>
+      </c>
+      <c r="B570">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A571">
+        <v>570</v>
+      </c>
+      <c r="B571">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A572">
+        <v>571</v>
+      </c>
+      <c r="B572">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A573">
+        <v>572</v>
+      </c>
+      <c r="B573">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A574">
+        <v>573</v>
+      </c>
+      <c r="B574">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A575">
+        <v>574</v>
+      </c>
+      <c r="B575">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A576">
+        <v>575</v>
+      </c>
+      <c r="B576">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A577">
+        <v>576</v>
+      </c>
+      <c r="B577">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A578">
+        <v>577</v>
+      </c>
+      <c r="B578">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A579">
+        <v>578</v>
+      </c>
+      <c r="B579">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A580">
+        <v>579</v>
+      </c>
+      <c r="B580">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A581">
+        <v>580</v>
+      </c>
+      <c r="B581">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A582">
+        <v>581</v>
+      </c>
+      <c r="B582">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A583">
+        <v>582</v>
+      </c>
+      <c r="B583">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A584">
+        <v>583</v>
+      </c>
+      <c r="B584">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A585">
+        <v>584</v>
+      </c>
+      <c r="B585">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A586">
+        <v>585</v>
+      </c>
+      <c r="B586">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A587">
+        <v>586</v>
+      </c>
+      <c r="B587">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A588">
+        <v>587</v>
+      </c>
+      <c r="B588">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A589">
+        <v>588</v>
+      </c>
+      <c r="B589">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A590">
+        <v>589</v>
+      </c>
+      <c r="B590">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A591">
+        <v>590</v>
+      </c>
+      <c r="B591">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A592">
+        <v>591</v>
+      </c>
+      <c r="B592">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A593">
+        <v>592</v>
+      </c>
+      <c r="B593">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A594">
+        <v>593</v>
+      </c>
+      <c r="B594">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A595">
+        <v>594</v>
+      </c>
+      <c r="B595">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A596">
+        <v>595</v>
+      </c>
+      <c r="B596">
+        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/CharacterGenerated.xlsx
+++ b/Config/Excel/CharacterGenerated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DEEE28-E0B5-44E6-9EAB-DAC662894E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8538DEF2-A0C4-4077-B192-3AF975EA0723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3432" yWindow="1644" windowWidth="17292" windowHeight="8964" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
+    <workbookView xWindow="2385" yWindow="2430" windowWidth="21690" windowHeight="12525" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,8 +115,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D596" totalsRowShown="0">
-  <autoFilter ref="A1:D596" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D597" totalsRowShown="0">
+  <autoFilter ref="A1:D597" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{188ED448-6F18-4626-9D31-2FDCAB89CAC3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{613AF5EE-FAF6-467B-B754-8686892A0D0F}" name="CharacterId"/>
@@ -424,18 +424,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F492B-B3F2-43F3-A1CC-F544B6281410}">
-  <dimension ref="A1:D596"/>
+  <dimension ref="A1:D597"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="I596" sqref="I596"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -457,7 +457,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -465,7 +465,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -473,7 +473,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -481,7 +481,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -489,7 +489,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -497,7 +497,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -505,7 +505,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -513,7 +513,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -521,7 +521,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -529,7 +529,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -537,7 +537,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -545,7 +545,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -553,7 +553,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -561,7 +561,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -569,7 +569,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -577,7 +577,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -585,7 +585,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -593,7 +593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -601,7 +601,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -609,7 +609,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -617,7 +617,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -625,7 +625,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -633,7 +633,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -641,7 +641,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -649,7 +649,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -657,7 +657,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -665,7 +665,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -673,7 +673,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -681,7 +681,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -689,7 +689,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -697,7 +697,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -705,7 +705,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -713,7 +713,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -721,7 +721,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -729,7 +729,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -737,7 +737,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -745,7 +745,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -753,7 +753,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -761,7 +761,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -769,7 +769,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -777,7 +777,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -785,7 +785,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -793,7 +793,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -801,7 +801,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -809,7 +809,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -817,7 +817,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -825,7 +825,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -833,7 +833,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -841,7 +841,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -849,7 +849,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -857,7 +857,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -865,7 +865,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -873,7 +873,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -881,7 +881,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -889,7 +889,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -897,7 +897,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -905,7 +905,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -913,7 +913,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -921,7 +921,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -929,7 +929,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -937,7 +937,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -945,7 +945,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -953,7 +953,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -961,7 +961,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -969,7 +969,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -977,7 +977,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -985,7 +985,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -993,7 +993,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>265</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>266</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>268</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>270</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>271</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>272</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>274</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>275</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>277</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>278</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>279</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>280</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>281</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>282</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>283</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>284</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>285</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>286</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>287</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>288</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>289</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>290</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>291</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>292</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>293</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>294</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>295</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>296</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>297</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>298</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>299</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>300</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>301</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>302</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>303</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>304</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>305</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>306</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>307</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>308</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>309</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>310</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>311</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>312</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>313</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>314</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>315</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>316</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>317</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>318</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>319</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>320</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>321</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>322</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>323</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>324</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>325</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>326</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>327</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>328</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>329</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>330</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>331</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>332</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>333</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>334</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>335</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>336</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>337</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>338</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>339</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>340</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>341</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>342</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>343</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>344</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>345</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>346</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>347</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>348</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>349</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>350</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>351</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>352</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>353</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>354</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>355</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>356</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>357</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>358</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>359</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>360</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>361</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>362</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>363</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>364</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>365</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>366</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>367</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>368</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>369</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>370</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>371</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>372</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>373</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>374</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>375</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>376</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>377</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>378</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>379</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>380</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>381</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>382</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>383</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>384</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>385</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>386</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>387</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>388</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>389</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>390</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>391</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>392</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>393</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>394</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>395</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>396</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>397</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>398</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>399</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>400</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>401</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>402</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>403</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>404</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>405</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>406</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>407</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>408</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>409</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>410</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>411</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>412</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>413</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>414</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>415</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>416</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>417</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>418</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>419</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>420</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>421</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>422</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>423</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>424</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>425</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>426</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>427</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>428</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>429</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>430</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>431</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>432</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>433</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>434</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>435</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>436</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>437</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>438</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>439</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>440</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>441</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>442</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>443</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>444</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>445</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>446</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>447</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>448</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>449</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>450</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>451</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>452</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>453</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>454</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>455</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>456</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>457</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>458</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>459</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>460</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>461</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>462</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>463</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>464</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>465</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>466</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>467</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>468</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>469</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>470</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>471</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>472</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>473</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>474</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>475</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>476</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>477</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>478</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>479</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>480</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>481</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>482</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>483</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>484</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>485</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>486</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>487</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>488</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>489</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>490</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>491</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>492</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>493</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>494</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>495</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>496</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>497</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>498</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>499</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>500</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>501</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>502</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>503</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>504</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>505</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>506</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>507</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>508</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>509</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>510</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>511</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>512</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>513</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>514</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>515</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>516</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>517</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>518</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>519</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>520</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>521</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>522</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>523</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>524</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>525</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>526</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>527</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>528</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>529</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>530</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>531</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>532</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>533</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>534</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>535</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>536</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>537</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>538</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>539</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>540</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>541</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>542</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>543</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>544</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>545</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>546</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>547</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>548</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>549</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>550</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>551</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>552</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>553</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>554</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>555</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>556</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>557</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>558</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>559</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>560</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>561</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>562</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>563</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>564</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>565</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>566</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>567</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>568</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>569</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>570</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>571</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>572</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>573</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>574</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>575</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>576</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>577</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>578</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>579</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>580</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>581</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>582</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>583</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>584</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>585</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>586</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>587</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>588</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>589</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>590</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>591</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>592</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>593</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>594</v>
       </c>
@@ -5201,12 +5201,20 @@
         <v>694</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>595</v>
       </c>
       <c r="B596">
         <v>695</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A597">
+        <v>10000</v>
+      </c>
+      <c r="B597">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/CharacterGenerated.xlsx
+++ b/Config/Excel/CharacterGenerated.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8538DEF2-A0C4-4077-B192-3AF975EA0723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6500E968-6B0A-4C65-BD97-412EBBA34201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2430" windowWidth="21690" windowHeight="12525" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1"/>
@@ -49,12 +50,61 @@
     <t>PosZ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>キャラを生成するX座標(省略時はランダム値)</t>
+    <rPh sb="4" eb="6">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラを生成するZ座標(省略時はランダム値)</t>
+    <rPh sb="4" eb="6">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CharacterのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,21 +120,60 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -93,8 +182,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F492B-B3F2-43F3-A1CC-F544B6281410}">
   <dimension ref="A1:D597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="I596" sqref="I596"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5225,4 +5320,61 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5B9D4C-5DC4-47C8-81C3-28CF99806146}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="3.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Config/Excel/CharacterGenerated.xlsx
+++ b/Config/Excel/CharacterGenerated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6500E968-6B0A-4C65-BD97-412EBBA34201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8914AAFF-D381-4D3D-AC45-D42A55CB8BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21690" windowHeight="12525" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,8 +210,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D597" totalsRowShown="0">
-  <autoFilter ref="A1:D597" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D601" totalsRowShown="0">
+  <autoFilter ref="A1:D601" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{188ED448-6F18-4626-9D31-2FDCAB89CAC3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{613AF5EE-FAF6-467B-B754-8686892A0D0F}" name="CharacterId"/>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F492B-B3F2-43F3-A1CC-F544B6281410}">
-  <dimension ref="A1:D597"/>
+  <dimension ref="A1:D601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
+      <selection activeCell="G598" sqref="G598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5272,7 +5272,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>592</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>593</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>594</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>595</v>
       </c>
@@ -5304,12 +5304,74 @@
         <v>695</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>10000</v>
       </c>
       <c r="B597">
         <v>10000</v>
+      </c>
+      <c r="C597">
+        <v>11</v>
+      </c>
+      <c r="D597">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A598">
+        <v>10001</v>
+      </c>
+      <c r="B598">
+        <v>10000</v>
+      </c>
+      <c r="C598">
+        <v>12</v>
+      </c>
+      <c r="D598">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A599">
+        <v>10002</v>
+      </c>
+      <c r="B599">
+        <v>10000</v>
+      </c>
+      <c r="C599">
+        <v>13</v>
+      </c>
+      <c r="D599">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A600">
+        <v>10003</v>
+      </c>
+      <c r="B600">
+        <v>10000</v>
+      </c>
+      <c r="C600">
+        <v>14</v>
+      </c>
+      <c r="D600">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A601">
+        <v>10004</v>
+      </c>
+      <c r="B601">
+        <v>10000</v>
+      </c>
+      <c r="C601">
+        <v>15</v>
+      </c>
+      <c r="D601">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/CharacterGenerated.xlsx
+++ b/Config/Excel/CharacterGenerated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8914AAFF-D381-4D3D-AC45-D42A55CB8BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC4B011-E499-42A1-9679-9AAFCDFDC160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21690" windowHeight="12525" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,8 +210,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D601" totalsRowShown="0">
-  <autoFilter ref="A1:D601" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D699" totalsRowShown="0">
+  <autoFilter ref="A1:D699" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{188ED448-6F18-4626-9D31-2FDCAB89CAC3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{613AF5EE-FAF6-467B-B754-8686892A0D0F}" name="CharacterId"/>
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F492B-B3F2-43F3-A1CC-F544B6281410}">
-  <dimension ref="A1:D601"/>
+  <dimension ref="A1:D699"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="G598" sqref="G598"/>
+    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
+      <selection activeCell="L606" sqref="L606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5272,7 +5272,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>592</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>593</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>594</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>595</v>
       </c>
@@ -5304,73 +5304,857 @@
         <v>695</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A597">
+        <v>596</v>
+      </c>
+      <c r="B597">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A598">
+        <v>597</v>
+      </c>
+      <c r="B598">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A599">
+        <v>598</v>
+      </c>
+      <c r="B599">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A600">
+        <v>599</v>
+      </c>
+      <c r="B600">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A601">
+        <v>600</v>
+      </c>
+      <c r="B601">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A602">
+        <v>601</v>
+      </c>
+      <c r="B602">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A603">
+        <v>602</v>
+      </c>
+      <c r="B603">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A604">
+        <v>603</v>
+      </c>
+      <c r="B604">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A605">
+        <v>604</v>
+      </c>
+      <c r="B605">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A606">
+        <v>605</v>
+      </c>
+      <c r="B606">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A607">
+        <v>606</v>
+      </c>
+      <c r="B607">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A608">
+        <v>607</v>
+      </c>
+      <c r="B608">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A609">
+        <v>608</v>
+      </c>
+      <c r="B609">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A610">
+        <v>609</v>
+      </c>
+      <c r="B610">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A611">
+        <v>610</v>
+      </c>
+      <c r="B611">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A612">
+        <v>611</v>
+      </c>
+      <c r="B612">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A613">
+        <v>612</v>
+      </c>
+      <c r="B613">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A614">
+        <v>613</v>
+      </c>
+      <c r="B614">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A615">
+        <v>614</v>
+      </c>
+      <c r="B615">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A616">
+        <v>615</v>
+      </c>
+      <c r="B616">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A617">
+        <v>616</v>
+      </c>
+      <c r="B617">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A618">
+        <v>617</v>
+      </c>
+      <c r="B618">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A619">
+        <v>618</v>
+      </c>
+      <c r="B619">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A620">
+        <v>619</v>
+      </c>
+      <c r="B620">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A621">
+        <v>620</v>
+      </c>
+      <c r="B621">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A622">
+        <v>621</v>
+      </c>
+      <c r="B622">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A623">
+        <v>622</v>
+      </c>
+      <c r="B623">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A624">
+        <v>623</v>
+      </c>
+      <c r="B624">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A625">
+        <v>624</v>
+      </c>
+      <c r="B625">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A626">
+        <v>625</v>
+      </c>
+      <c r="B626">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A627">
+        <v>626</v>
+      </c>
+      <c r="B627">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A628">
+        <v>627</v>
+      </c>
+      <c r="B628">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A629">
+        <v>628</v>
+      </c>
+      <c r="B629">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A630">
+        <v>629</v>
+      </c>
+      <c r="B630">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A631">
+        <v>630</v>
+      </c>
+      <c r="B631">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A632">
+        <v>631</v>
+      </c>
+      <c r="B632">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A633">
+        <v>632</v>
+      </c>
+      <c r="B633">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A634">
+        <v>633</v>
+      </c>
+      <c r="B634">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A635">
+        <v>634</v>
+      </c>
+      <c r="B635">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A636">
+        <v>635</v>
+      </c>
+      <c r="B636">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A637">
+        <v>636</v>
+      </c>
+      <c r="B637">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A638">
+        <v>637</v>
+      </c>
+      <c r="B638">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A639">
+        <v>638</v>
+      </c>
+      <c r="B639">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A640">
+        <v>639</v>
+      </c>
+      <c r="B640">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A641">
+        <v>640</v>
+      </c>
+      <c r="B641">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A642">
+        <v>641</v>
+      </c>
+      <c r="B642">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A643">
+        <v>642</v>
+      </c>
+      <c r="B643">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A644">
+        <v>643</v>
+      </c>
+      <c r="B644">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A645">
+        <v>644</v>
+      </c>
+      <c r="B645">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A646">
+        <v>645</v>
+      </c>
+      <c r="B646">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A647">
+        <v>646</v>
+      </c>
+      <c r="B647">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A648">
+        <v>647</v>
+      </c>
+      <c r="B648">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A649">
+        <v>648</v>
+      </c>
+      <c r="B649">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A650">
+        <v>649</v>
+      </c>
+      <c r="B650">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A651">
+        <v>650</v>
+      </c>
+      <c r="B651">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A652">
+        <v>651</v>
+      </c>
+      <c r="B652">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A653">
+        <v>652</v>
+      </c>
+      <c r="B653">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A654">
+        <v>653</v>
+      </c>
+      <c r="B654">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A655">
+        <v>654</v>
+      </c>
+      <c r="B655">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A656">
+        <v>655</v>
+      </c>
+      <c r="B656">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A657">
+        <v>656</v>
+      </c>
+      <c r="B657">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A658">
+        <v>657</v>
+      </c>
+      <c r="B658">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A659">
+        <v>658</v>
+      </c>
+      <c r="B659">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A660">
+        <v>659</v>
+      </c>
+      <c r="B660">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A661">
+        <v>660</v>
+      </c>
+      <c r="B661">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A662">
+        <v>661</v>
+      </c>
+      <c r="B662">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A663">
+        <v>662</v>
+      </c>
+      <c r="B663">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A664">
+        <v>663</v>
+      </c>
+      <c r="B664">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A665">
+        <v>664</v>
+      </c>
+      <c r="B665">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A666">
+        <v>665</v>
+      </c>
+      <c r="B666">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A667">
+        <v>666</v>
+      </c>
+      <c r="B667">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A668">
+        <v>667</v>
+      </c>
+      <c r="B668">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A669">
+        <v>668</v>
+      </c>
+      <c r="B669">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A670">
+        <v>669</v>
+      </c>
+      <c r="B670">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A671">
+        <v>670</v>
+      </c>
+      <c r="B671">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A672">
+        <v>671</v>
+      </c>
+      <c r="B672">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A673">
+        <v>672</v>
+      </c>
+      <c r="B673">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A674">
+        <v>673</v>
+      </c>
+      <c r="B674">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A675">
+        <v>674</v>
+      </c>
+      <c r="B675">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A676">
+        <v>675</v>
+      </c>
+      <c r="B676">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A677">
+        <v>676</v>
+      </c>
+      <c r="B677">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A678">
+        <v>677</v>
+      </c>
+      <c r="B678">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A679">
+        <v>678</v>
+      </c>
+      <c r="B679">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A680">
+        <v>679</v>
+      </c>
+      <c r="B680">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A681">
+        <v>680</v>
+      </c>
+      <c r="B681">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A682">
+        <v>681</v>
+      </c>
+      <c r="B682">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A683">
+        <v>682</v>
+      </c>
+      <c r="B683">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A684">
+        <v>683</v>
+      </c>
+      <c r="B684">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A685">
+        <v>684</v>
+      </c>
+      <c r="B685">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A686">
+        <v>685</v>
+      </c>
+      <c r="B686">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A687">
+        <v>686</v>
+      </c>
+      <c r="B687">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A688">
+        <v>687</v>
+      </c>
+      <c r="B688">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A689">
+        <v>688</v>
+      </c>
+      <c r="B689">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A690">
+        <v>689</v>
+      </c>
+      <c r="B690">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A691">
+        <v>690</v>
+      </c>
+      <c r="B691">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A692">
+        <v>691</v>
+      </c>
+      <c r="B692">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A693">
+        <v>692</v>
+      </c>
+      <c r="B693">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A694">
+        <v>693</v>
+      </c>
+      <c r="B694">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A695">
         <v>10000</v>
       </c>
-      <c r="B597">
+      <c r="B695">
         <v>10000</v>
       </c>
-      <c r="C597">
+      <c r="C695">
         <v>11</v>
       </c>
-      <c r="D597">
+      <c r="D695">
         <v>15</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A598">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A696">
         <v>10001</v>
       </c>
-      <c r="B598">
+      <c r="B696">
         <v>10000</v>
       </c>
-      <c r="C598">
+      <c r="C696">
         <v>12</v>
       </c>
-      <c r="D598">
+      <c r="D696">
         <v>15</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A599">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A697">
         <v>10002</v>
       </c>
-      <c r="B599">
+      <c r="B697">
         <v>10000</v>
       </c>
-      <c r="C599">
+      <c r="C697">
         <v>13</v>
       </c>
-      <c r="D599">
+      <c r="D697">
         <v>15</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A600">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A698">
         <v>10003</v>
       </c>
-      <c r="B600">
+      <c r="B698">
         <v>10000</v>
       </c>
-      <c r="C600">
+      <c r="C698">
         <v>14</v>
       </c>
-      <c r="D600">
+      <c r="D698">
         <v>15</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A601">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A699">
         <v>10004</v>
       </c>
-      <c r="B601">
+      <c r="B699">
         <v>10000</v>
       </c>
-      <c r="C601">
+      <c r="C699">
         <v>15</v>
       </c>
-      <c r="D601">
+      <c r="D699">
         <v>15</v>
       </c>
     </row>

--- a/Config/Excel/CharacterGenerated.xlsx
+++ b/Config/Excel/CharacterGenerated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC4B011-E499-42A1-9679-9AAFCDFDC160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91863FAA-48CE-4BD9-B2CF-F5E89F8F32D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{785B7F4C-165C-4E0F-8D1F-0AF9DF33161A}"/>
   </bookViews>
@@ -130,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +143,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -176,13 +182,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,6 +216,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -210,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D699" totalsRowShown="0">
-  <autoFilter ref="A1:D699" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}" name="テーブル1" displayName="テーブル1" ref="A1:D897" totalsRowShown="0">
+  <autoFilter ref="A1:D897" xr:uid="{E65DEEF2-4392-4458-B2F5-DA19D3FD369C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{188ED448-6F18-4626-9D31-2FDCAB89CAC3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{613AF5EE-FAF6-467B-B754-8686892A0D0F}" name="CharacterId"/>
@@ -519,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F492B-B3F2-43F3-A1CC-F544B6281410}">
-  <dimension ref="A1:D699"/>
+  <dimension ref="A1:D897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
-      <selection activeCell="L606" sqref="L606"/>
+    <sheetView tabSelected="1" topLeftCell="A680" workbookViewId="0">
+      <selection activeCell="E873" sqref="E873"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6040,7 +6087,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>688</v>
       </c>
@@ -6048,7 +6095,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A690">
         <v>689</v>
       </c>
@@ -6056,7 +6103,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>690</v>
       </c>
@@ -6064,7 +6111,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A692">
         <v>691</v>
       </c>
@@ -6072,7 +6119,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>692</v>
       </c>
@@ -6080,7 +6127,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A694">
         <v>693</v>
       </c>
@@ -6088,73 +6135,1659 @@
         <v>793</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A695">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A695" s="5">
+        <v>694</v>
+      </c>
+      <c r="B695" s="6">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A696" s="3">
+        <v>695</v>
+      </c>
+      <c r="B696" s="4">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A697" s="5">
+        <v>696</v>
+      </c>
+      <c r="B697" s="6">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A698" s="3">
+        <v>697</v>
+      </c>
+      <c r="B698" s="4">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A699" s="5">
+        <v>698</v>
+      </c>
+      <c r="B699" s="6">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A700" s="3">
+        <v>699</v>
+      </c>
+      <c r="B700" s="4">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A701" s="5">
+        <v>700</v>
+      </c>
+      <c r="B701" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A702" s="3">
+        <v>701</v>
+      </c>
+      <c r="B702" s="4">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A703" s="5">
+        <v>702</v>
+      </c>
+      <c r="B703" s="6">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A704" s="3">
+        <v>703</v>
+      </c>
+      <c r="B704" s="4">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A705" s="5">
+        <v>704</v>
+      </c>
+      <c r="B705" s="6">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A706" s="3">
+        <v>705</v>
+      </c>
+      <c r="B706" s="4">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A707" s="5">
+        <v>706</v>
+      </c>
+      <c r="B707" s="6">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A708" s="3">
+        <v>707</v>
+      </c>
+      <c r="B708" s="4">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A709" s="5">
+        <v>708</v>
+      </c>
+      <c r="B709" s="6">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A710" s="3">
+        <v>709</v>
+      </c>
+      <c r="B710" s="4">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A711" s="5">
+        <v>710</v>
+      </c>
+      <c r="B711" s="6">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A712" s="3">
+        <v>711</v>
+      </c>
+      <c r="B712" s="4">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A713" s="5">
+        <v>712</v>
+      </c>
+      <c r="B713" s="6">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A714" s="3">
+        <v>713</v>
+      </c>
+      <c r="B714" s="4">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A715" s="5">
+        <v>714</v>
+      </c>
+      <c r="B715" s="6">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A716" s="3">
+        <v>715</v>
+      </c>
+      <c r="B716" s="4">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A717" s="5">
+        <v>716</v>
+      </c>
+      <c r="B717" s="6">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A718" s="3">
+        <v>717</v>
+      </c>
+      <c r="B718" s="4">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A719" s="5">
+        <v>718</v>
+      </c>
+      <c r="B719" s="6">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A720" s="3">
+        <v>719</v>
+      </c>
+      <c r="B720" s="4">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A721" s="5">
+        <v>720</v>
+      </c>
+      <c r="B721" s="6">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A722" s="3">
+        <v>721</v>
+      </c>
+      <c r="B722" s="4">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A723" s="5">
+        <v>722</v>
+      </c>
+      <c r="B723" s="6">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A724" s="3">
+        <v>723</v>
+      </c>
+      <c r="B724" s="4">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A725" s="5">
+        <v>724</v>
+      </c>
+      <c r="B725" s="6">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A726" s="3">
+        <v>725</v>
+      </c>
+      <c r="B726" s="4">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A727" s="5">
+        <v>726</v>
+      </c>
+      <c r="B727" s="6">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A728" s="3">
+        <v>727</v>
+      </c>
+      <c r="B728" s="4">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A729" s="5">
+        <v>728</v>
+      </c>
+      <c r="B729" s="6">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A730" s="3">
+        <v>729</v>
+      </c>
+      <c r="B730" s="4">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A731" s="5">
+        <v>730</v>
+      </c>
+      <c r="B731" s="6">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A732" s="3">
+        <v>731</v>
+      </c>
+      <c r="B732" s="4">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A733" s="5">
+        <v>732</v>
+      </c>
+      <c r="B733" s="6">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A734" s="3">
+        <v>733</v>
+      </c>
+      <c r="B734" s="4">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A735" s="5">
+        <v>734</v>
+      </c>
+      <c r="B735" s="6">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A736" s="3">
+        <v>735</v>
+      </c>
+      <c r="B736" s="4">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A737" s="5">
+        <v>736</v>
+      </c>
+      <c r="B737" s="6">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A738" s="3">
+        <v>737</v>
+      </c>
+      <c r="B738" s="4">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A739" s="5">
+        <v>738</v>
+      </c>
+      <c r="B739" s="6">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A740" s="3">
+        <v>739</v>
+      </c>
+      <c r="B740" s="4">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A741" s="5">
+        <v>740</v>
+      </c>
+      <c r="B741" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A742" s="3">
+        <v>741</v>
+      </c>
+      <c r="B742" s="4">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A743" s="5">
+        <v>742</v>
+      </c>
+      <c r="B743" s="6">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A744" s="3">
+        <v>743</v>
+      </c>
+      <c r="B744" s="4">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A745" s="5">
+        <v>744</v>
+      </c>
+      <c r="B745" s="6">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A746" s="3">
+        <v>745</v>
+      </c>
+      <c r="B746" s="4">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A747" s="5">
+        <v>746</v>
+      </c>
+      <c r="B747" s="6">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A748" s="3">
+        <v>747</v>
+      </c>
+      <c r="B748" s="4">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A749" s="5">
+        <v>748</v>
+      </c>
+      <c r="B749" s="6">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A750" s="3">
+        <v>749</v>
+      </c>
+      <c r="B750" s="4">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A751" s="5">
+        <v>750</v>
+      </c>
+      <c r="B751" s="6">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A752" s="3">
+        <v>751</v>
+      </c>
+      <c r="B752" s="4">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A753" s="5">
+        <v>752</v>
+      </c>
+      <c r="B753" s="6">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A754" s="3">
+        <v>753</v>
+      </c>
+      <c r="B754" s="4">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A755" s="5">
+        <v>754</v>
+      </c>
+      <c r="B755" s="6">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A756" s="3">
+        <v>755</v>
+      </c>
+      <c r="B756" s="4">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A757" s="5">
+        <v>756</v>
+      </c>
+      <c r="B757" s="6">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A758" s="3">
+        <v>757</v>
+      </c>
+      <c r="B758" s="4">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A759" s="5">
+        <v>758</v>
+      </c>
+      <c r="B759" s="6">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A760" s="3">
+        <v>759</v>
+      </c>
+      <c r="B760" s="4">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A761" s="5">
+        <v>760</v>
+      </c>
+      <c r="B761" s="6">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A762" s="3">
+        <v>761</v>
+      </c>
+      <c r="B762" s="4">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A763" s="5">
+        <v>762</v>
+      </c>
+      <c r="B763" s="6">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A764" s="3">
+        <v>763</v>
+      </c>
+      <c r="B764" s="4">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A765" s="5">
+        <v>764</v>
+      </c>
+      <c r="B765" s="6">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A766" s="3">
+        <v>765</v>
+      </c>
+      <c r="B766" s="4">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A767" s="5">
+        <v>766</v>
+      </c>
+      <c r="B767" s="6">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A768" s="3">
+        <v>767</v>
+      </c>
+      <c r="B768" s="4">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A769" s="5">
+        <v>768</v>
+      </c>
+      <c r="B769" s="6">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A770" s="3">
+        <v>769</v>
+      </c>
+      <c r="B770" s="4">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A771" s="5">
+        <v>770</v>
+      </c>
+      <c r="B771" s="6">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A772" s="3">
+        <v>771</v>
+      </c>
+      <c r="B772" s="4">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A773" s="5">
+        <v>772</v>
+      </c>
+      <c r="B773" s="6">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A774" s="3">
+        <v>773</v>
+      </c>
+      <c r="B774" s="4">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A775" s="5">
+        <v>774</v>
+      </c>
+      <c r="B775" s="6">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A776" s="3">
+        <v>775</v>
+      </c>
+      <c r="B776" s="4">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A777" s="5">
+        <v>776</v>
+      </c>
+      <c r="B777" s="6">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A778" s="3">
+        <v>777</v>
+      </c>
+      <c r="B778" s="4">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A779" s="5">
+        <v>778</v>
+      </c>
+      <c r="B779" s="6">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A780" s="3">
+        <v>779</v>
+      </c>
+      <c r="B780" s="4">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A781" s="5">
+        <v>780</v>
+      </c>
+      <c r="B781" s="6">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A782" s="3">
+        <v>781</v>
+      </c>
+      <c r="B782" s="4">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A783" s="5">
+        <v>782</v>
+      </c>
+      <c r="B783" s="6">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A784" s="3">
+        <v>783</v>
+      </c>
+      <c r="B784" s="4">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A785" s="5">
+        <v>784</v>
+      </c>
+      <c r="B785" s="6">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A786" s="3">
+        <v>785</v>
+      </c>
+      <c r="B786" s="4">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A787" s="5">
+        <v>786</v>
+      </c>
+      <c r="B787" s="6">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A788" s="3">
+        <v>787</v>
+      </c>
+      <c r="B788" s="4">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A789" s="5">
+        <v>788</v>
+      </c>
+      <c r="B789" s="6">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A790" s="3">
+        <v>789</v>
+      </c>
+      <c r="B790" s="4">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A791" s="5">
+        <v>790</v>
+      </c>
+      <c r="B791" s="6">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A792" s="3">
+        <v>791</v>
+      </c>
+      <c r="B792" s="4">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A793" s="5">
+        <v>792</v>
+      </c>
+      <c r="B793" s="6">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A794" s="3">
+        <v>793</v>
+      </c>
+      <c r="B794" s="4">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A795" s="5">
+        <v>794</v>
+      </c>
+      <c r="B795" s="6">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A796" s="3">
+        <v>795</v>
+      </c>
+      <c r="B796" s="4">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A797" s="5">
+        <v>796</v>
+      </c>
+      <c r="B797" s="6">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A798" s="3">
+        <v>797</v>
+      </c>
+      <c r="B798" s="4">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A799" s="5">
+        <v>798</v>
+      </c>
+      <c r="B799" s="6">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A800" s="3">
+        <v>799</v>
+      </c>
+      <c r="B800" s="4">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A801" s="5">
+        <v>800</v>
+      </c>
+      <c r="B801" s="6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A802" s="3">
+        <v>801</v>
+      </c>
+      <c r="B802" s="4">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A803" s="5">
+        <v>802</v>
+      </c>
+      <c r="B803" s="6">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A804" s="3">
+        <v>803</v>
+      </c>
+      <c r="B804" s="4">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A805" s="5">
+        <v>804</v>
+      </c>
+      <c r="B805" s="6">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A806" s="3">
+        <v>805</v>
+      </c>
+      <c r="B806" s="4">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A807" s="5">
+        <v>806</v>
+      </c>
+      <c r="B807" s="6">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A808" s="3">
+        <v>807</v>
+      </c>
+      <c r="B808" s="4">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A809" s="5">
+        <v>808</v>
+      </c>
+      <c r="B809" s="6">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A810" s="3">
+        <v>809</v>
+      </c>
+      <c r="B810" s="4">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A811" s="5">
+        <v>810</v>
+      </c>
+      <c r="B811" s="6">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A812" s="3">
+        <v>811</v>
+      </c>
+      <c r="B812" s="4">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A813" s="5">
+        <v>812</v>
+      </c>
+      <c r="B813" s="6">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A814" s="3">
+        <v>813</v>
+      </c>
+      <c r="B814" s="4">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A815" s="5">
+        <v>814</v>
+      </c>
+      <c r="B815" s="6">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A816" s="3">
+        <v>815</v>
+      </c>
+      <c r="B816" s="4">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A817" s="5">
+        <v>816</v>
+      </c>
+      <c r="B817" s="6">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A818" s="3">
+        <v>817</v>
+      </c>
+      <c r="B818" s="4">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A819" s="5">
+        <v>818</v>
+      </c>
+      <c r="B819" s="6">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A820" s="3">
+        <v>819</v>
+      </c>
+      <c r="B820" s="4">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A821" s="5">
+        <v>820</v>
+      </c>
+      <c r="B821" s="6">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A822" s="3">
+        <v>821</v>
+      </c>
+      <c r="B822" s="4">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A823" s="5">
+        <v>822</v>
+      </c>
+      <c r="B823" s="6">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A824" s="3">
+        <v>823</v>
+      </c>
+      <c r="B824" s="4">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A825" s="5">
+        <v>824</v>
+      </c>
+      <c r="B825" s="6">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A826" s="3">
+        <v>825</v>
+      </c>
+      <c r="B826" s="4">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A827" s="5">
+        <v>826</v>
+      </c>
+      <c r="B827" s="6">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A828" s="3">
+        <v>827</v>
+      </c>
+      <c r="B828" s="4">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A829" s="5">
+        <v>828</v>
+      </c>
+      <c r="B829" s="6">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A830" s="3">
+        <v>829</v>
+      </c>
+      <c r="B830" s="4">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A831" s="5">
+        <v>830</v>
+      </c>
+      <c r="B831" s="6">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A832" s="3">
+        <v>831</v>
+      </c>
+      <c r="B832" s="4">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A833" s="5">
+        <v>832</v>
+      </c>
+      <c r="B833" s="6">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A834" s="3">
+        <v>833</v>
+      </c>
+      <c r="B834" s="4">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A835" s="5">
+        <v>834</v>
+      </c>
+      <c r="B835" s="6">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A836" s="3">
+        <v>835</v>
+      </c>
+      <c r="B836" s="4">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A837" s="5">
+        <v>836</v>
+      </c>
+      <c r="B837" s="6">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A838" s="3">
+        <v>837</v>
+      </c>
+      <c r="B838" s="4">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A839" s="5">
+        <v>838</v>
+      </c>
+      <c r="B839" s="6">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A840" s="3">
+        <v>839</v>
+      </c>
+      <c r="B840" s="4">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A841" s="5">
+        <v>840</v>
+      </c>
+      <c r="B841" s="6">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A842" s="3">
+        <v>841</v>
+      </c>
+      <c r="B842" s="4">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A843" s="5">
+        <v>842</v>
+      </c>
+      <c r="B843" s="6">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A844" s="3">
+        <v>843</v>
+      </c>
+      <c r="B844" s="4">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A845" s="5">
+        <v>844</v>
+      </c>
+      <c r="B845" s="6">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A846" s="3">
+        <v>845</v>
+      </c>
+      <c r="B846" s="4">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A847" s="5">
+        <v>846</v>
+      </c>
+      <c r="B847" s="6">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A848" s="3">
+        <v>847</v>
+      </c>
+      <c r="B848" s="4">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A849" s="5">
+        <v>848</v>
+      </c>
+      <c r="B849" s="6">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A850" s="3">
+        <v>849</v>
+      </c>
+      <c r="B850" s="4">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A851" s="5">
+        <v>850</v>
+      </c>
+      <c r="B851" s="6">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A852" s="3">
+        <v>851</v>
+      </c>
+      <c r="B852" s="4">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A853" s="5">
+        <v>852</v>
+      </c>
+      <c r="B853" s="6">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A854" s="3">
+        <v>853</v>
+      </c>
+      <c r="B854" s="4">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A855" s="5">
+        <v>854</v>
+      </c>
+      <c r="B855" s="6">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A856" s="3">
+        <v>855</v>
+      </c>
+      <c r="B856" s="4">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A857" s="5">
+        <v>856</v>
+      </c>
+      <c r="B857" s="6">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A858" s="3">
+        <v>857</v>
+      </c>
+      <c r="B858" s="4">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A859" s="5">
+        <v>858</v>
+      </c>
+      <c r="B859" s="6">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A860" s="3">
+        <v>859</v>
+      </c>
+      <c r="B860" s="4">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A861" s="5">
+        <v>860</v>
+      </c>
+      <c r="B861" s="6">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A862" s="3">
+        <v>861</v>
+      </c>
+      <c r="B862" s="4">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A863" s="5">
+        <v>862</v>
+      </c>
+      <c r="B863" s="6">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A864" s="3">
+        <v>863</v>
+      </c>
+      <c r="B864" s="4">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A865" s="5">
+        <v>864</v>
+      </c>
+      <c r="B865" s="6">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A866" s="3">
+        <v>865</v>
+      </c>
+      <c r="B866" s="4">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A867" s="5">
+        <v>866</v>
+      </c>
+      <c r="B867" s="6">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A868" s="3">
+        <v>867</v>
+      </c>
+      <c r="B868" s="4">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A869" s="5">
+        <v>868</v>
+      </c>
+      <c r="B869" s="6">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A870" s="3">
+        <v>869</v>
+      </c>
+      <c r="B870" s="4">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A871" s="5">
+        <v>870</v>
+      </c>
+      <c r="B871" s="6">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A872" s="3">
+        <v>871</v>
+      </c>
+      <c r="B872" s="4">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A873" s="5">
+        <v>872</v>
+      </c>
+      <c r="B873" s="6">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A874" s="3">
+        <v>873</v>
+      </c>
+      <c r="B874" s="4">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A875" s="5">
+        <v>874</v>
+      </c>
+      <c r="B875" s="6">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A876" s="3">
+        <v>875</v>
+      </c>
+      <c r="B876" s="4">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A877" s="5">
+        <v>876</v>
+      </c>
+      <c r="B877" s="6">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A878" s="3">
+        <v>877</v>
+      </c>
+      <c r="B878" s="4">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A879" s="5">
+        <v>878</v>
+      </c>
+      <c r="B879" s="6">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A880" s="3">
+        <v>879</v>
+      </c>
+      <c r="B880" s="4">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A881" s="5">
+        <v>880</v>
+      </c>
+      <c r="B881" s="6">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A882" s="3">
+        <v>881</v>
+      </c>
+      <c r="B882" s="4">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A883" s="5">
+        <v>882</v>
+      </c>
+      <c r="B883" s="6">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A884" s="3">
+        <v>883</v>
+      </c>
+      <c r="B884" s="4">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A885" s="5">
+        <v>884</v>
+      </c>
+      <c r="B885" s="6">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A886" s="3">
+        <v>885</v>
+      </c>
+      <c r="B886" s="4">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A887" s="5">
+        <v>886</v>
+      </c>
+      <c r="B887" s="6">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A888" s="3">
+        <v>887</v>
+      </c>
+      <c r="B888" s="4">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A889" s="5">
+        <v>888</v>
+      </c>
+      <c r="B889" s="6">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A890" s="3">
+        <v>889</v>
+      </c>
+      <c r="B890" s="4">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A891" s="5">
+        <v>890</v>
+      </c>
+      <c r="B891" s="6">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A892" s="7">
+        <v>891</v>
+      </c>
+      <c r="B892" s="8">
+        <v>991</v>
+      </c>
+      <c r="C892" s="9"/>
+      <c r="D892" s="9"/>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A893">
         <v>10000</v>
       </c>
-      <c r="B695">
+      <c r="B893">
         <v>10000</v>
       </c>
-      <c r="C695">
+      <c r="C893">
         <v>11</v>
       </c>
-      <c r="D695">
+      <c r="D893">
         <v>15</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A696">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A894">
         <v>10001</v>
       </c>
-      <c r="B696">
+      <c r="B894">
         <v>10000</v>
       </c>
-      <c r="C696">
+      <c r="C894">
         <v>12</v>
       </c>
-      <c r="D696">
+      <c r="D894">
         <v>15</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A697">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A895">
         <v>10002</v>
       </c>
-      <c r="B697">
+      <c r="B895">
         <v>10000</v>
       </c>
-      <c r="C697">
+      <c r="C895">
         <v>13</v>
       </c>
-      <c r="D697">
+      <c r="D895">
         <v>15</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A698">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A896">
         <v>10003</v>
       </c>
-      <c r="B698">
+      <c r="B896">
         <v>10000</v>
       </c>
-      <c r="C698">
+      <c r="C896">
         <v>14</v>
       </c>
-      <c r="D698">
+      <c r="D896">
         <v>15</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A699">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A897">
         <v>10004</v>
       </c>
-      <c r="B699">
+      <c r="B897">
         <v>10000</v>
       </c>
-      <c r="C699">
+      <c r="C897">
         <v>15</v>
       </c>
-      <c r="D699">
+      <c r="D897">
         <v>15</v>
       </c>
     </row>
